--- a/tablas canciones por paises.xlsx
+++ b/tablas canciones por paises.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bfrai\Desktop\MARINA\MODULO2\music_proyect_team2_modulo2adalab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E348427D-B017-4102-AD29-3D093136D624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5DCFFD-294E-4CD3-9CF7-6B4D215FDB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{80EE3779-30D0-4A98-AA8C-8552500CC265}"/>
   </bookViews>
@@ -209,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -217,15 +217,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,14 +582,19 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -608,259 +632,260 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -899,262 +924,262 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="G17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="G22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="H26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>3</v>
       </c>
     </row>
